--- a/spłata kredytu.xlsx
+++ b/spłata kredytu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Płatność malejąca" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Numer raty</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>pd z15 i 16</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1638,7 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1840,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2225,7 @@
         <v>190733.40498941939</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2242,8 +2245,11 @@
         <f t="shared" si="3"/>
         <v>182582.88745891277</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>174384.82524281152</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>166138.94099711633</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>157844.95575998793</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>149502.58894230961</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>141111.55831819482</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>132671.58001543937</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>124182.36850591784</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>115643.63659592411</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>107055.09541645541</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>98416.454413439817</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>89727.421337906635</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>80987.702236099503</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>72197.001439531829</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>63355.021554984181</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
